--- a/USHPRR/UMo_pressure_grad_segregation.xlsx
+++ b/USHPRR/UMo_pressure_grad_segregation.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76DB17A4-073C-CB44-9EAB-EDB7D41CE549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFA58A9-1E91-D341-98C8-8E5AB1660F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{24512B78-3653-FF4C-8ABD-8191EF5D32D9}"/>
+    <workbookView xWindow="1220" yWindow="1260" windowWidth="26840" windowHeight="15940" xr2:uid="{24512B78-3653-FF4C-8ABD-8191EF5D32D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$4:$C$45</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$H$4:$H$45</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$L$4:$L$45</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$Q$4:$Q$45</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$4:$C$45</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$4:$H$45</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$L$4:$L$45</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$Q$4:$Q$45</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>relaxation</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -273,130 +271,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1.2238199999999999</c:v>
+                  <c:v>1.2283900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.21492</c:v>
+                  <c:v>1.2300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.21506</c:v>
+                  <c:v>1.22235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2204200000000001</c:v>
+                  <c:v>1.22123</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1.2277800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2242500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2296800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.21027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.21052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.21733</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2133499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.21865</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2134400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.21959</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.20556</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.22804</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2286699999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2310700000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.21166</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.22017</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.22081</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2262299999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.21096</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.20516</c:v>
+                  <c:v>1.21991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2211799999999999</c:v>
+                  <c:v>1.2158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2286900000000001</c:v>
+                  <c:v>1.2152000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2213400000000001</c:v>
+                  <c:v>1.2200800000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.21286</c:v>
+                  <c:v>1.2317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2122900000000001</c:v>
+                  <c:v>1.2101999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2183600000000001</c:v>
+                  <c:v>1.22065</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2231300000000001</c:v>
+                  <c:v>1.23271</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.22174</c:v>
+                  <c:v>1.21086</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2304600000000001</c:v>
+                  <c:v>1.2176100000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2338100000000001</c:v>
+                  <c:v>1.2128099999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2278500000000001</c:v>
+                  <c:v>1.2156199999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.22106</c:v>
+                  <c:v>1.21567</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2001900000000001</c:v>
+                  <c:v>1.21434</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1969700000000001</c:v>
+                  <c:v>1.21113</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.20967</c:v>
+                  <c:v>1.2288300000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2194199999999999</c:v>
+                  <c:v>1.2394799999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2223599999999999</c:v>
+                  <c:v>1.2197199999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.22201</c:v>
+                  <c:v>1.2262900000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2231000000000001</c:v>
+                  <c:v>1.22698</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.22797</c:v>
+                  <c:v>1.2224200000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.22749</c:v>
+                  <c:v>1.2241500000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2258100000000001</c:v>
+                  <c:v>1.20912</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.22279</c:v>
+                  <c:v>1.2147300000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.22492</c:v>
+                  <c:v>1.2172400000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.21689</c:v>
+                  <c:v>1.2084999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.21556</c:v>
+                  <c:v>1.2281299999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2321899999999999</c:v>
+                  <c:v>1.2225600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,7 +423,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$4:$L$45</c:f>
+              <c:f>Sheet1!$M$4:$M$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -560,135 +558,135 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$4:$Q$45</c:f>
+              <c:f>Sheet1!$R$4:$R$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1.2076499999999999</c:v>
+                  <c:v>1.17561</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1602300000000001</c:v>
+                  <c:v>1.0845499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.15161</c:v>
+                  <c:v>1.07012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.16882</c:v>
+                  <c:v>1.0586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1660999999999999</c:v>
+                  <c:v>1.06314</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1694899999999999</c:v>
+                  <c:v>1.0610299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1688700000000001</c:v>
+                  <c:v>1.08453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1914199999999999</c:v>
+                  <c:v>1.09091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.18035</c:v>
+                  <c:v>1.0946899999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1915899999999999</c:v>
+                  <c:v>1.10477</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1863600000000001</c:v>
+                  <c:v>1.11999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.19293</c:v>
+                  <c:v>1.13161</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.19234</c:v>
+                  <c:v>1.1359300000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.18726</c:v>
+                  <c:v>1.1513500000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1889000000000001</c:v>
+                  <c:v>1.15143</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2023999999999999</c:v>
+                  <c:v>1.1638999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2216499999999999</c:v>
+                  <c:v>1.1742900000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.22546</c:v>
+                  <c:v>1.1851100000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2096499999999999</c:v>
+                  <c:v>1.2035400000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2134</c:v>
+                  <c:v>1.20313</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2279</c:v>
+                  <c:v>1.20818</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2272799999999999</c:v>
+                  <c:v>1.22881</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.23153</c:v>
+                  <c:v>1.2242599999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2423299999999999</c:v>
+                  <c:v>1.2374099999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2386600000000001</c:v>
+                  <c:v>1.2429600000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.23342</c:v>
+                  <c:v>1.2744200000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2381899999999999</c:v>
+                  <c:v>1.2649900000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.22438</c:v>
+                  <c:v>1.2748200000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2254</c:v>
+                  <c:v>1.2877799999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.24315</c:v>
+                  <c:v>1.29348</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2486600000000001</c:v>
+                  <c:v>1.3129500000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.2520100000000001</c:v>
+                  <c:v>1.3256399999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.25101</c:v>
+                  <c:v>1.3130599999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.26308</c:v>
+                  <c:v>1.3416999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2685900000000001</c:v>
+                  <c:v>1.3450200000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.2504</c:v>
+                  <c:v>1.3548</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.26163</c:v>
+                  <c:v>1.3634900000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.27132</c:v>
+                  <c:v>1.3751</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2651399999999999</c:v>
+                  <c:v>1.39198</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.26993</c:v>
+                  <c:v>1.3722099999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.25851</c:v>
+                  <c:v>1.32447</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.23969</c:v>
+                  <c:v>1.2098500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,6 +695,798 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-45BC-3842-A3D1-8742722B7F1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1040160863"/>
+        <c:axId val="2008258815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1040160863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008258815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2008258815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040160863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>148.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>188.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>194.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>201.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>207.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>221.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>227.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>234.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>240.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>254.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>260.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>267.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>273.89999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>191740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>691781.33333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>647769.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>613623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579057.33333333337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>532578</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>522578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>439594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>422550</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>392513.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340853.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>318352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>273661</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>249162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>204082</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155587.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129526</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95823.633333333346</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80165.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13112.230000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1405.4833333333329</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-19090.570066666667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-95378.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-117656.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-160152.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-183086</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-217246.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-253926.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-292493.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-308298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-320939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-386376.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-409597</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-446593</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-493617.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-525236.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-569894.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-602426.33333333337</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-625908.33333333337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-675558.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-587000.66666666663</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-30178.753333333327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E78D-4146-8CE3-A12E748FFD49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>122.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>148.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>161.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>174.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>188.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>194.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>201.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>207.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>221.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>227.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>234.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>240.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>254.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>260.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>267.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>273.89999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$4:$S$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>-123148.73333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>452993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>431162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382155.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>346497.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>298722.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>295446.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>259635.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226740.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192411.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173425.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>143059.29999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105991.59999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81464.766666666663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52492.71333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19706.313333333335</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8781.7666666666682</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-42925.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-53122.866666666669</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-82090.266666666677</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-120242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-124077.03333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-176806.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-194839</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-222698</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-208369</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-268770.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-290201.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-295885</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-328954.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-329736.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-342959</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-399242.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-381837</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-404175.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-424385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-433525.33333333331</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-447966</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-447624.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-522705.66666666669</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-550284</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-88739.726666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E78D-4146-8CE3-A12E748FFD49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -887,7 +1677,412 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$13:$V$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>950000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1050000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$13:$X$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-292374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-292395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-292418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-292407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-292378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-292372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-292362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-292350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-292344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-292338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-292335</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-292334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-292331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46BA-8C41-B9AA-01234B39A3D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297048927"/>
+        <c:axId val="1371232095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297048927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371232095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1371232095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297048927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1443,20 +2638,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1476,6 +3703,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9015B280-E407-6F4A-AD6B-4207D2C69B76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE007211-DE18-0CBA-8D76-EFBABB4CCFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1801,17 +4102,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0A104D-0F35-B04F-B2C3-33C496CA4A3A}">
-  <dimension ref="A3:Q45"/>
+  <dimension ref="A2:AB45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="B3">
         <v>42</v>
@@ -1819,17 +4125,17 @@
       <c r="C3">
         <v>64000</v>
       </c>
-      <c r="J3">
-        <v>700000</v>
-      </c>
       <c r="K3">
+        <v>1100000</v>
+      </c>
+      <c r="L3">
         <v>42</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>64000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1837,43 +4143,72 @@
         <v>3.3</v>
       </c>
       <c r="D4">
-        <v>1429.04</v>
+        <v>1446.77</v>
       </c>
       <c r="E4">
-        <v>114705</v>
+        <v>223331</v>
       </c>
       <c r="F4">
-        <v>71365.3</v>
+        <v>157912</v>
       </c>
       <c r="G4">
-        <v>97512.8</v>
+        <v>193977</v>
       </c>
       <c r="H4">
-        <v>1.2238199999999999</v>
-      </c>
-      <c r="K4">
+        <v>1.2283900000000001</v>
+      </c>
+      <c r="I4">
+        <f>SUM(E4:G4)/3</f>
+        <v>191740</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3.3</v>
       </c>
-      <c r="M4">
-        <v>1383.85</v>
-      </c>
       <c r="N4">
-        <v>246896</v>
+        <v>1436.68</v>
       </c>
       <c r="O4">
-        <v>127931</v>
+        <v>-61447.199999999997</v>
       </c>
       <c r="P4">
-        <v>169015</v>
+        <v>-163651</v>
       </c>
       <c r="Q4">
-        <v>1.2076499999999999</v>
+        <v>-144348</v>
+      </c>
+      <c r="R4">
+        <v>1.17561</v>
+      </c>
+      <c r="S4">
+        <f>SUM(O4:Q4)/3</f>
+        <v>-123148.73333333334</v>
+      </c>
+      <c r="V4">
+        <v>50000</v>
+      </c>
+      <c r="W4">
+        <v>1199.93</v>
+      </c>
+      <c r="X4">
+        <v>-292513</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z4">
+        <v>-78.157499999999999</v>
+      </c>
+      <c r="AA4">
+        <v>49920</v>
+      </c>
+      <c r="AB4">
+        <v>14080</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1881,43 +4216,72 @@
         <v>9.9</v>
       </c>
       <c r="D5">
-        <v>1486.93</v>
-      </c>
-      <c r="E5">
-        <v>330479</v>
+        <v>1571.47</v>
+      </c>
+      <c r="E5" s="1">
+        <v>782356</v>
       </c>
       <c r="F5">
-        <v>256681</v>
+        <v>641773</v>
       </c>
       <c r="G5">
-        <v>261780</v>
+        <v>651215</v>
       </c>
       <c r="H5">
-        <v>1.21492</v>
-      </c>
-      <c r="K5">
+        <v>1.2300899999999999</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I45" si="0">SUM(E5:G5)/3</f>
+        <v>691781.33333333337</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>9.9</v>
       </c>
-      <c r="M5">
-        <v>1520.52</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1037640</v>
-      </c>
-      <c r="O5">
-        <v>752313</v>
+      <c r="N5">
+        <v>1578.81</v>
+      </c>
+      <c r="O5" s="1">
+        <v>677369</v>
       </c>
       <c r="P5">
-        <v>746552</v>
+        <v>340577</v>
       </c>
       <c r="Q5">
-        <v>1.1602300000000001</v>
+        <v>341033</v>
+      </c>
+      <c r="R5">
+        <v>1.0845499999999999</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S45" si="1">SUM(O5:Q5)/3</f>
+        <v>452993</v>
+      </c>
+      <c r="V5">
+        <v>100000</v>
+      </c>
+      <c r="W5">
+        <v>1199.8499999999999</v>
+      </c>
+      <c r="X5">
+        <v>-292511</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z5">
+        <v>-60.133699999999997</v>
+      </c>
+      <c r="AA5">
+        <v>49920</v>
+      </c>
+      <c r="AB5">
+        <v>14080</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1925,43 +4289,72 @@
         <v>16.5</v>
       </c>
       <c r="D6">
-        <v>1588.39</v>
-      </c>
-      <c r="E6">
-        <v>304469</v>
+        <v>1591.16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>745771</v>
       </c>
       <c r="F6">
-        <v>241577</v>
+        <v>593232</v>
       </c>
       <c r="G6">
-        <v>234515</v>
+        <v>604306</v>
       </c>
       <c r="H6">
-        <v>1.21506</v>
-      </c>
-      <c r="K6">
+        <v>1.22235</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>647769.66666666663</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>16.5</v>
       </c>
-      <c r="M6">
-        <v>1538.36</v>
-      </c>
       <c r="N6">
-        <v>974807</v>
+        <v>1348.99</v>
       </c>
       <c r="O6">
-        <v>701416</v>
+        <v>656270</v>
       </c>
       <c r="P6">
-        <v>691821</v>
+        <v>318589</v>
       </c>
       <c r="Q6">
-        <v>1.15161</v>
+        <v>318627</v>
+      </c>
+      <c r="R6">
+        <v>1.07012</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>431162</v>
+      </c>
+      <c r="V6">
+        <v>150000</v>
+      </c>
+      <c r="W6">
+        <v>1199.96</v>
+      </c>
+      <c r="X6">
+        <v>-292501</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z6">
+        <v>-20.8035</v>
+      </c>
+      <c r="AA6">
+        <v>49920</v>
+      </c>
+      <c r="AB6">
+        <v>14080</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1969,43 +4362,72 @@
         <v>23.1</v>
       </c>
       <c r="D7">
-        <v>1591.94</v>
-      </c>
-      <c r="E7">
-        <v>290854</v>
+        <v>1452.95</v>
+      </c>
+      <c r="E7" s="1">
+        <v>700223</v>
       </c>
       <c r="F7">
-        <v>240633</v>
+        <v>571466</v>
       </c>
       <c r="G7">
-        <v>223151</v>
+        <v>569180</v>
       </c>
       <c r="H7">
-        <v>1.2204200000000001</v>
-      </c>
-      <c r="K7">
+        <v>1.22123</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>613623</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>23.1</v>
       </c>
-      <c r="M7">
-        <v>1313.63</v>
-      </c>
       <c r="N7">
-        <v>933024</v>
+        <v>1453.95</v>
       </c>
       <c r="O7">
-        <v>686717</v>
+        <v>611360</v>
       </c>
       <c r="P7">
-        <v>676571</v>
+        <v>266626</v>
       </c>
       <c r="Q7">
-        <v>1.16882</v>
+        <v>268481</v>
+      </c>
+      <c r="R7">
+        <v>1.0586</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>382155.66666666669</v>
+      </c>
+      <c r="V7">
+        <v>200000</v>
+      </c>
+      <c r="W7">
+        <v>1199.8399999999999</v>
+      </c>
+      <c r="X7">
+        <v>-292496</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z7">
+        <v>38.183199999999999</v>
+      </c>
+      <c r="AA7">
+        <v>49920</v>
+      </c>
+      <c r="AB7">
+        <v>14080</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2013,43 +4435,72 @@
         <v>29.7</v>
       </c>
       <c r="D8">
-        <v>1522.24</v>
+        <v>1382.38</v>
       </c>
       <c r="E8">
-        <v>266102</v>
+        <v>674378</v>
       </c>
       <c r="F8">
-        <v>203018</v>
+        <v>523927</v>
       </c>
       <c r="G8">
-        <v>224090</v>
+        <v>538867</v>
       </c>
       <c r="H8">
-        <v>1.21959</v>
-      </c>
-      <c r="K8">
+        <v>1.2277800000000001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>579057.33333333337</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>29.7</v>
       </c>
-      <c r="M8">
-        <v>1546.79</v>
-      </c>
       <c r="N8">
-        <v>876385</v>
+        <v>1514.85</v>
       </c>
       <c r="O8">
-        <v>643636</v>
+        <v>563217</v>
       </c>
       <c r="P8">
-        <v>642348</v>
+        <v>238693</v>
       </c>
       <c r="Q8">
-        <v>1.1660999999999999</v>
+        <v>237583</v>
+      </c>
+      <c r="R8">
+        <v>1.06314</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>346497.66666666669</v>
+      </c>
+      <c r="V8">
+        <v>250000</v>
+      </c>
+      <c r="W8">
+        <v>1199.8699999999999</v>
+      </c>
+      <c r="X8">
+        <v>-292480</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z8">
+        <v>105.898</v>
+      </c>
+      <c r="AA8">
+        <v>49920</v>
+      </c>
+      <c r="AB8">
+        <v>14080</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2057,43 +4508,72 @@
         <v>36.299999999999997</v>
       </c>
       <c r="D9">
-        <v>1452.46</v>
+        <v>1573.62</v>
       </c>
       <c r="E9">
-        <v>247285</v>
+        <v>607660</v>
       </c>
       <c r="F9">
-        <v>172417</v>
+        <v>496181</v>
       </c>
       <c r="G9">
-        <v>181428</v>
+        <v>493893</v>
       </c>
       <c r="H9">
-        <v>1.20556</v>
-      </c>
-      <c r="K9">
+        <v>1.2242500000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>532578</v>
+      </c>
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>36.299999999999997</v>
       </c>
-      <c r="M9">
-        <v>1486.19</v>
-      </c>
       <c r="N9">
-        <v>802910</v>
+        <v>1293.1500000000001</v>
       </c>
       <c r="O9">
-        <v>586229</v>
+        <v>522108</v>
       </c>
       <c r="P9">
-        <v>589214</v>
+        <v>187579</v>
       </c>
       <c r="Q9">
-        <v>1.1694899999999999</v>
+        <v>186481</v>
+      </c>
+      <c r="R9">
+        <v>1.0610299999999999</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>298722.66666666669</v>
+      </c>
+      <c r="V9">
+        <v>300000</v>
+      </c>
+      <c r="W9">
+        <v>1199.93</v>
+      </c>
+      <c r="X9">
+        <v>-292465</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z9">
+        <v>185.29900000000001</v>
+      </c>
+      <c r="AA9">
+        <v>49920</v>
+      </c>
+      <c r="AB9">
+        <v>14080</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2101,43 +4581,72 @@
         <v>42.9</v>
       </c>
       <c r="D10">
-        <v>1484.63</v>
+        <v>1595.84</v>
       </c>
       <c r="E10">
-        <v>245891</v>
+        <v>584182</v>
       </c>
       <c r="F10">
-        <v>202408</v>
+        <v>489734</v>
       </c>
       <c r="G10">
-        <v>193473</v>
+        <v>493818</v>
       </c>
       <c r="H10">
-        <v>1.22804</v>
-      </c>
-      <c r="K10">
+        <v>1.2296800000000001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>522578</v>
+      </c>
+      <c r="L10">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>42.9</v>
       </c>
-      <c r="M10">
-        <v>1413.05</v>
-      </c>
       <c r="N10">
-        <v>742724</v>
+        <v>1587.91</v>
       </c>
       <c r="O10">
-        <v>535089</v>
+        <v>477160</v>
       </c>
       <c r="P10">
-        <v>530663</v>
+        <v>198383</v>
       </c>
       <c r="Q10">
-        <v>1.1688700000000001</v>
+        <v>210796</v>
+      </c>
+      <c r="R10">
+        <v>1.08453</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>295446.33333333331</v>
+      </c>
+      <c r="V10">
+        <v>350000</v>
+      </c>
+      <c r="W10">
+        <v>1199.9100000000001</v>
+      </c>
+      <c r="X10">
+        <v>-292444</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z10">
+        <v>309.935</v>
+      </c>
+      <c r="AA10">
+        <v>49920</v>
+      </c>
+      <c r="AB10">
+        <v>14080</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2145,43 +4654,72 @@
         <v>49.5</v>
       </c>
       <c r="D11">
-        <v>1556.08</v>
+        <v>1504.77</v>
       </c>
       <c r="E11">
-        <v>205880</v>
+        <v>523482</v>
       </c>
       <c r="F11">
-        <v>184773</v>
+        <v>402097</v>
       </c>
       <c r="G11">
-        <v>171899</v>
+        <v>393203</v>
       </c>
       <c r="H11">
-        <v>1.2286699999999999</v>
-      </c>
-      <c r="K11">
+        <v>1.21027</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>439594</v>
+      </c>
+      <c r="L11">
         <v>8</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>49.5</v>
       </c>
-      <c r="M11">
-        <v>1510.64</v>
-      </c>
       <c r="N11">
-        <v>711618</v>
+        <v>1372.69</v>
       </c>
       <c r="O11">
-        <v>540737</v>
+        <v>433789</v>
       </c>
       <c r="P11">
-        <v>541058</v>
+        <v>169847</v>
       </c>
       <c r="Q11">
-        <v>1.1914199999999999</v>
+        <v>175271</v>
+      </c>
+      <c r="R11">
+        <v>1.09091</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>259635.66666666666</v>
+      </c>
+      <c r="V11">
+        <v>400000</v>
+      </c>
+      <c r="W11">
+        <v>1199.77</v>
+      </c>
+      <c r="X11">
+        <v>-292427</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z11">
+        <v>425.26600000000002</v>
+      </c>
+      <c r="AA11">
+        <v>49920</v>
+      </c>
+      <c r="AB11">
+        <v>14080</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2189,43 +4727,72 @@
         <v>56.1</v>
       </c>
       <c r="D12">
-        <v>1573.67</v>
+        <v>1366.16</v>
       </c>
       <c r="E12">
-        <v>211537</v>
+        <v>502780</v>
       </c>
       <c r="F12">
-        <v>182047</v>
+        <v>383265</v>
       </c>
       <c r="G12">
-        <v>177453</v>
+        <v>381605</v>
       </c>
       <c r="H12">
-        <v>1.2310700000000001</v>
-      </c>
-      <c r="K12">
+        <v>1.21052</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>422550</v>
+      </c>
+      <c r="L12">
         <v>9</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>56.1</v>
       </c>
-      <c r="M12">
-        <v>1508.16</v>
-      </c>
       <c r="N12">
-        <v>620495</v>
+        <v>1432.72</v>
       </c>
       <c r="O12">
-        <v>450705</v>
+        <v>387211</v>
       </c>
       <c r="P12">
-        <v>449763</v>
+        <v>148133</v>
       </c>
       <c r="Q12">
-        <v>1.18035</v>
+        <v>144878</v>
+      </c>
+      <c r="R12">
+        <v>1.0946899999999999</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>226740.66666666666</v>
+      </c>
+      <c r="V12">
+        <v>450000</v>
+      </c>
+      <c r="W12">
+        <v>1200.18</v>
+      </c>
+      <c r="X12">
+        <v>-292402</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z12">
+        <v>581.77200000000005</v>
+      </c>
+      <c r="AA12">
+        <v>49920</v>
+      </c>
+      <c r="AB12">
+        <v>14080</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2233,43 +4800,72 @@
         <v>62.7</v>
       </c>
       <c r="D13">
-        <v>1533.46</v>
+        <v>1535.31</v>
       </c>
       <c r="E13">
-        <v>162941</v>
+        <v>451835</v>
       </c>
       <c r="F13">
-        <v>109074</v>
+        <v>369731</v>
       </c>
       <c r="G13">
-        <v>110864</v>
+        <v>355974</v>
       </c>
       <c r="H13">
-        <v>1.21166</v>
-      </c>
-      <c r="K13">
+        <v>1.21733</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>392513.33333333331</v>
+      </c>
+      <c r="L13">
         <v>10</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>62.7</v>
       </c>
-      <c r="M13">
-        <v>1458.13</v>
-      </c>
       <c r="N13">
-        <v>573105</v>
+        <v>1591.27</v>
       </c>
       <c r="O13">
-        <v>426725</v>
+        <v>336151</v>
       </c>
       <c r="P13">
-        <v>421003</v>
+        <v>121207</v>
       </c>
       <c r="Q13">
-        <v>1.1915899999999999</v>
+        <v>119876</v>
+      </c>
+      <c r="R13">
+        <v>1.10477</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>192411.33333333334</v>
+      </c>
+      <c r="V13">
+        <v>500000</v>
+      </c>
+      <c r="W13">
+        <v>1199.78</v>
+      </c>
+      <c r="X13">
+        <v>-292374</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z13">
+        <v>740.50199999999995</v>
+      </c>
+      <c r="AA13">
+        <v>49920</v>
+      </c>
+      <c r="AB13">
+        <v>14080</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2277,43 +4873,72 @@
         <v>69.3</v>
       </c>
       <c r="D14">
-        <v>1531.23</v>
+        <v>1597.04</v>
       </c>
       <c r="E14">
-        <v>158566</v>
+        <v>406537</v>
       </c>
       <c r="F14">
-        <v>127301</v>
+        <v>304929</v>
       </c>
       <c r="G14">
-        <v>112569</v>
+        <v>311094</v>
       </c>
       <c r="H14">
-        <v>1.22017</v>
-      </c>
-      <c r="K14">
+        <v>1.2133499999999999</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>340853.33333333331</v>
+      </c>
+      <c r="L14">
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>69.3</v>
       </c>
-      <c r="M14">
-        <v>1510.14</v>
-      </c>
       <c r="N14">
-        <v>520229</v>
+        <v>1394.39</v>
       </c>
       <c r="O14">
-        <v>377526</v>
+        <v>297557</v>
       </c>
       <c r="P14">
-        <v>372870</v>
+        <v>111556</v>
       </c>
       <c r="Q14">
-        <v>1.1863600000000001</v>
+        <v>111163</v>
+      </c>
+      <c r="R14">
+        <v>1.11999</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>173425.33333333334</v>
+      </c>
+      <c r="V14">
+        <v>550000</v>
+      </c>
+      <c r="W14">
+        <v>1199.75</v>
+      </c>
+      <c r="X14">
+        <v>-292395</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z14">
+        <v>1993.42</v>
+      </c>
+      <c r="AA14">
+        <v>49920</v>
+      </c>
+      <c r="AB14">
+        <v>14080</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2321,43 +4946,72 @@
         <v>75.900000000000006</v>
       </c>
       <c r="D15">
-        <v>1524.8</v>
+        <v>1578.89</v>
       </c>
       <c r="E15">
-        <v>146477</v>
+        <v>366097</v>
       </c>
       <c r="F15">
-        <v>123532</v>
+        <v>292879</v>
       </c>
       <c r="G15">
-        <v>128533</v>
+        <v>296080</v>
       </c>
       <c r="H15">
-        <v>1.22081</v>
-      </c>
-      <c r="K15">
+        <v>1.21865</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>318352</v>
+      </c>
+      <c r="L15">
         <v>12</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>75.900000000000006</v>
       </c>
-      <c r="M15">
-        <v>1512.17</v>
-      </c>
       <c r="N15">
-        <v>467057</v>
+        <v>1418.51</v>
       </c>
       <c r="O15">
-        <v>340661</v>
+        <v>263366</v>
       </c>
       <c r="P15">
-        <v>338530</v>
+        <v>83125.600000000006</v>
       </c>
       <c r="Q15">
-        <v>1.19293</v>
+        <v>82686.3</v>
+      </c>
+      <c r="R15">
+        <v>1.13161</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>143059.29999999999</v>
+      </c>
+      <c r="V15">
+        <v>600000</v>
+      </c>
+      <c r="W15">
+        <v>1199.55</v>
+      </c>
+      <c r="X15">
+        <v>-292418</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z15">
+        <v>3002.04</v>
+      </c>
+      <c r="AA15">
+        <v>49920</v>
+      </c>
+      <c r="AB15">
+        <v>14080</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2365,43 +5019,72 @@
         <v>82.5</v>
       </c>
       <c r="D16">
-        <v>1509.88</v>
+        <v>1446.27</v>
       </c>
       <c r="E16">
-        <v>139629</v>
+        <v>319979</v>
       </c>
       <c r="F16">
-        <v>129290</v>
+        <v>253370</v>
       </c>
       <c r="G16">
-        <v>117314</v>
+        <v>247634</v>
       </c>
       <c r="H16">
-        <v>1.2262299999999999</v>
-      </c>
-      <c r="K16">
+        <v>1.2134400000000001</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>273661</v>
+      </c>
+      <c r="L16">
         <v>13</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>82.5</v>
       </c>
-      <c r="M16">
-        <v>1484.11</v>
-      </c>
       <c r="N16">
-        <v>391588</v>
+        <v>1593.43</v>
       </c>
       <c r="O16">
-        <v>279295</v>
+        <v>203241</v>
       </c>
       <c r="P16">
-        <v>279001</v>
+        <v>54557.4</v>
       </c>
       <c r="Q16">
-        <v>1.19234</v>
+        <v>60176.4</v>
+      </c>
+      <c r="R16">
+        <v>1.1359300000000001</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>105991.59999999999</v>
+      </c>
+      <c r="V16">
+        <v>650000</v>
+      </c>
+      <c r="W16">
+        <v>1200.01</v>
+      </c>
+      <c r="X16">
+        <v>-292407</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z16">
+        <v>3638.81</v>
+      </c>
+      <c r="AA16">
+        <v>49920</v>
+      </c>
+      <c r="AB16">
+        <v>14080</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2409,43 +5092,72 @@
         <v>89.1</v>
       </c>
       <c r="D17">
-        <v>1519.82</v>
+        <v>1417.62</v>
       </c>
       <c r="E17">
-        <v>119446</v>
+        <v>289217</v>
       </c>
       <c r="F17">
-        <v>69807.199999999997</v>
+        <v>227407</v>
       </c>
       <c r="G17">
-        <v>75900.800000000003</v>
+        <v>230862</v>
       </c>
       <c r="H17">
-        <v>1.21096</v>
-      </c>
-      <c r="K17">
+        <v>1.21959</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>249162</v>
+      </c>
+      <c r="L17">
         <v>14</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>89.1</v>
       </c>
-      <c r="M17">
-        <v>1496.91</v>
-      </c>
       <c r="N17">
-        <v>335747</v>
+        <v>1559.84</v>
       </c>
       <c r="O17">
-        <v>224875</v>
+        <v>161769</v>
       </c>
       <c r="P17">
-        <v>223256</v>
+        <v>37356.800000000003</v>
       </c>
       <c r="Q17">
-        <v>1.18726</v>
+        <v>45268.5</v>
+      </c>
+      <c r="R17">
+        <v>1.1513500000000001</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>81464.766666666663</v>
+      </c>
+      <c r="V17">
+        <v>700000</v>
+      </c>
+      <c r="W17">
+        <v>1199.82</v>
+      </c>
+      <c r="X17">
+        <v>-292378</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z17">
+        <v>4007.98</v>
+      </c>
+      <c r="AA17">
+        <v>49920</v>
+      </c>
+      <c r="AB17">
+        <v>14080</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2453,43 +5165,72 @@
         <v>95.7</v>
       </c>
       <c r="D18">
-        <v>1531.11</v>
+        <v>1559.65</v>
       </c>
       <c r="E18">
-        <v>90037.4</v>
+        <v>237454</v>
       </c>
       <c r="F18">
-        <v>42645.4</v>
+        <v>189523</v>
       </c>
       <c r="G18">
-        <v>42885.1</v>
+        <v>185269</v>
       </c>
       <c r="H18">
-        <v>1.20516</v>
-      </c>
-      <c r="K18">
+        <v>1.21991</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>204082</v>
+      </c>
+      <c r="L18">
         <v>15</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>95.7</v>
       </c>
-      <c r="M18">
-        <v>1538.03</v>
-      </c>
       <c r="N18">
-        <v>284512</v>
+        <v>1365.17</v>
       </c>
       <c r="O18">
-        <v>169898</v>
+        <v>137671</v>
       </c>
       <c r="P18">
-        <v>164991</v>
+        <v>10561.1</v>
       </c>
       <c r="Q18">
-        <v>1.1889000000000001</v>
+        <v>9246.0400000000009</v>
+      </c>
+      <c r="R18">
+        <v>1.15143</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>52492.71333333334</v>
+      </c>
+      <c r="V18">
+        <v>750000</v>
+      </c>
+      <c r="W18">
+        <v>1199.9000000000001</v>
+      </c>
+      <c r="X18">
+        <v>-292372</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z18">
+        <v>4326.57</v>
+      </c>
+      <c r="AA18">
+        <v>49920</v>
+      </c>
+      <c r="AB18">
+        <v>14080</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2497,43 +5238,72 @@
         <v>102.3</v>
       </c>
       <c r="D19">
-        <v>1548.65</v>
+        <v>1597.86</v>
       </c>
       <c r="E19">
-        <v>82296.399999999994</v>
+        <v>191575</v>
       </c>
       <c r="F19">
-        <v>63158.6</v>
+        <v>132417</v>
       </c>
       <c r="G19">
-        <v>54320.1</v>
+        <v>142771</v>
       </c>
       <c r="H19">
-        <v>1.2211799999999999</v>
-      </c>
-      <c r="K19">
+        <v>1.2158</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>155587.66666666666</v>
+      </c>
+      <c r="L19">
         <v>16</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>102.3</v>
       </c>
-      <c r="M19">
-        <v>1538.83</v>
-      </c>
       <c r="N19">
-        <v>221507</v>
+        <v>1483.52</v>
       </c>
       <c r="O19">
-        <v>143684</v>
+        <v>81197.7</v>
       </c>
       <c r="P19">
-        <v>134688</v>
+        <v>-13616.7</v>
       </c>
       <c r="Q19">
-        <v>1.2023999999999999</v>
+        <v>-8462.06</v>
+      </c>
+      <c r="R19">
+        <v>1.1638999999999999</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>19706.313333333335</v>
+      </c>
+      <c r="V19">
+        <v>800000</v>
+      </c>
+      <c r="W19">
+        <v>1199.9100000000001</v>
+      </c>
+      <c r="X19">
+        <v>-292362</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z19">
+        <v>4610.13</v>
+      </c>
+      <c r="AA19">
+        <v>49920</v>
+      </c>
+      <c r="AB19">
+        <v>14080</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
@@ -2541,43 +5311,72 @@
         <v>108.9</v>
       </c>
       <c r="D20">
-        <v>1559.69</v>
+        <v>1590.15</v>
       </c>
       <c r="E20">
-        <v>67582.899999999994</v>
+        <v>156024</v>
       </c>
       <c r="F20">
-        <v>73373.2</v>
+        <v>120792</v>
       </c>
       <c r="G20">
-        <v>63259.7</v>
+        <v>111762</v>
       </c>
       <c r="H20">
-        <v>1.2286900000000001</v>
-      </c>
-      <c r="K20">
+        <v>1.2152000000000001</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>129526</v>
+      </c>
+      <c r="L20">
         <v>17</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>108.9</v>
       </c>
-      <c r="M20">
-        <v>1510.03</v>
-      </c>
       <c r="N20">
-        <v>164832</v>
+        <v>1592.13</v>
       </c>
       <c r="O20">
-        <v>141259</v>
+        <v>39714.5</v>
       </c>
       <c r="P20">
-        <v>129888</v>
+        <v>-34221.9</v>
       </c>
       <c r="Q20">
-        <v>1.2216499999999999</v>
+        <v>-31837.9</v>
+      </c>
+      <c r="R20">
+        <v>1.1742900000000001</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>-8781.7666666666682</v>
+      </c>
+      <c r="V20">
+        <v>850000</v>
+      </c>
+      <c r="W20">
+        <v>1200.01</v>
+      </c>
+      <c r="X20">
+        <v>-292350</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z20">
+        <v>4661.16</v>
+      </c>
+      <c r="AA20">
+        <v>49920</v>
+      </c>
+      <c r="AB20">
+        <v>14080</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>18</v>
       </c>
@@ -2585,43 +5384,72 @@
         <v>115.5</v>
       </c>
       <c r="D21">
-        <v>1545.82</v>
+        <v>1515.36</v>
       </c>
       <c r="E21">
-        <v>51929.3</v>
+        <v>117418</v>
       </c>
       <c r="F21">
-        <v>41140.300000000003</v>
+        <v>93971.5</v>
       </c>
       <c r="G21">
-        <v>42338.1</v>
+        <v>76081.399999999994</v>
       </c>
       <c r="H21">
-        <v>1.2213400000000001</v>
-      </c>
-      <c r="K21">
+        <v>1.2200800000000001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>95823.633333333346</v>
+      </c>
+      <c r="L21">
         <v>18</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>115.5</v>
       </c>
-      <c r="M21">
-        <v>1507.96</v>
-      </c>
       <c r="N21">
-        <v>104692</v>
+        <v>1595.77</v>
       </c>
       <c r="O21">
-        <v>93377</v>
+        <v>-10501.5</v>
       </c>
       <c r="P21">
-        <v>103685</v>
+        <v>-57165.1</v>
       </c>
       <c r="Q21">
-        <v>1.22546</v>
+        <v>-61109.3</v>
+      </c>
+      <c r="R21">
+        <v>1.1851100000000001</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>-42925.3</v>
+      </c>
+      <c r="V21">
+        <v>900000</v>
+      </c>
+      <c r="W21">
+        <v>1199.78</v>
+      </c>
+      <c r="X21">
+        <v>-292344</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z21">
+        <v>4774.95</v>
+      </c>
+      <c r="AA21">
+        <v>49920</v>
+      </c>
+      <c r="AB21">
+        <v>14080</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>19</v>
       </c>
@@ -2629,43 +5457,72 @@
         <v>122.1</v>
       </c>
       <c r="D22">
-        <v>1511.96</v>
+        <v>1431.35</v>
       </c>
       <c r="E22">
-        <v>38128.300000000003</v>
+        <v>84247.4</v>
       </c>
       <c r="F22">
-        <v>13454.7</v>
+        <v>77703.8</v>
       </c>
       <c r="G22">
-        <v>23334.799999999999</v>
+        <v>78545.600000000006</v>
       </c>
       <c r="H22">
-        <v>1.21286</v>
-      </c>
-      <c r="K22">
+        <v>1.2317</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>80165.600000000006</v>
+      </c>
+      <c r="L22">
         <v>19</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>122.1</v>
       </c>
-      <c r="M22">
-        <v>1522.22</v>
-      </c>
       <c r="N22">
-        <v>50879.4</v>
+        <v>1552.55</v>
       </c>
       <c r="O22">
-        <v>23208.400000000001</v>
+        <v>-48008.1</v>
       </c>
       <c r="P22">
-        <v>38811.1</v>
+        <v>-57903.9</v>
       </c>
       <c r="Q22">
-        <v>1.2096499999999999</v>
+        <v>-53456.6</v>
+      </c>
+      <c r="R22">
+        <v>1.2035400000000001</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>-53122.866666666669</v>
+      </c>
+      <c r="V22">
+        <v>950000</v>
+      </c>
+      <c r="W22">
+        <v>1200.01</v>
+      </c>
+      <c r="X22">
+        <v>-292338</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z22">
+        <v>4882.21</v>
+      </c>
+      <c r="AA22">
+        <v>49920</v>
+      </c>
+      <c r="AB22">
+        <v>14080</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2673,43 +5530,72 @@
         <v>128.69999999999999</v>
       </c>
       <c r="D23">
-        <v>1503.78</v>
+        <v>1487.71</v>
       </c>
       <c r="E23">
-        <v>25391.9</v>
+        <v>27888.400000000001</v>
       </c>
       <c r="F23">
-        <v>7864.31</v>
+        <v>8788.75</v>
       </c>
       <c r="G23">
-        <v>8354.7900000000009</v>
+        <v>2659.54</v>
       </c>
       <c r="H23">
-        <v>1.2122900000000001</v>
-      </c>
-      <c r="K23">
+        <v>1.2101999999999999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>13112.230000000001</v>
+      </c>
+      <c r="L23">
         <v>20</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>128.69999999999999</v>
       </c>
-      <c r="M23">
-        <v>1553.37</v>
-      </c>
       <c r="N23">
-        <v>-10579.6</v>
+        <v>1446.09</v>
       </c>
       <c r="O23">
-        <v>-12187.5</v>
+        <v>-74671.3</v>
       </c>
       <c r="P23">
-        <v>-9591.9699999999993</v>
+        <v>-81835.100000000006</v>
       </c>
       <c r="Q23">
-        <v>1.2134</v>
+        <v>-89764.4</v>
+      </c>
+      <c r="R23">
+        <v>1.20313</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>-82090.266666666677</v>
+      </c>
+      <c r="V23">
+        <v>1000000</v>
+      </c>
+      <c r="W23">
+        <v>1199.73</v>
+      </c>
+      <c r="X23">
+        <v>-292335</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z23">
+        <v>4871.66</v>
+      </c>
+      <c r="AA23">
+        <v>49920</v>
+      </c>
+      <c r="AB23">
+        <v>14080</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>21</v>
       </c>
@@ -2717,43 +5603,72 @@
         <v>135.30000000000001</v>
       </c>
       <c r="D24">
-        <v>1533.42</v>
+        <v>1577.65</v>
       </c>
       <c r="E24">
-        <v>-857.52700000000004</v>
+        <v>-10568.3</v>
       </c>
       <c r="F24">
-        <v>7790.18</v>
+        <v>-3646.91</v>
       </c>
       <c r="G24">
-        <v>12668.9</v>
+        <v>9998.76</v>
       </c>
       <c r="H24">
-        <v>1.2183600000000001</v>
-      </c>
-      <c r="K24">
+        <v>1.22065</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>-1405.4833333333329</v>
+      </c>
+      <c r="L24">
         <v>21</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>135.30000000000001</v>
       </c>
-      <c r="M24">
-        <v>1567.27</v>
-      </c>
       <c r="N24">
-        <v>-62760.5</v>
+        <v>1458.05</v>
       </c>
       <c r="O24">
-        <v>-22849.5</v>
+        <v>-123955</v>
       </c>
       <c r="P24">
-        <v>-26535.5</v>
+        <v>-114547</v>
       </c>
       <c r="Q24">
-        <v>1.2279</v>
+        <v>-122224</v>
+      </c>
+      <c r="R24">
+        <v>1.20818</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>-120242</v>
+      </c>
+      <c r="V24">
+        <v>1050000</v>
+      </c>
+      <c r="W24">
+        <v>1199.74</v>
+      </c>
+      <c r="X24">
+        <v>-292334</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z24">
+        <v>4860.18</v>
+      </c>
+      <c r="AA24">
+        <v>49920</v>
+      </c>
+      <c r="AB24">
+        <v>14080</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>22</v>
       </c>
@@ -2761,43 +5676,72 @@
         <v>141.9</v>
       </c>
       <c r="D25">
-        <v>1554.78</v>
+        <v>1597.93</v>
       </c>
       <c r="E25">
-        <v>-10204.9</v>
+        <v>-43452.2</v>
       </c>
       <c r="F25">
-        <v>7197.78</v>
+        <v>-42.7102</v>
       </c>
       <c r="G25">
-        <v>-8034.91</v>
+        <v>-13776.8</v>
       </c>
       <c r="H25">
-        <v>1.2231300000000001</v>
-      </c>
-      <c r="K25">
+        <v>1.23271</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>-19090.570066666667</v>
+      </c>
+      <c r="L25">
         <v>22</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>141.9</v>
       </c>
-      <c r="M25">
-        <v>1562.53</v>
-      </c>
       <c r="N25">
-        <v>-125144</v>
+        <v>1555.94</v>
       </c>
       <c r="O25">
-        <v>-80105.8</v>
+        <v>-167549</v>
       </c>
       <c r="P25">
-        <v>-81761.600000000006</v>
+        <v>-97685.1</v>
       </c>
       <c r="Q25">
-        <v>1.2272799999999999</v>
+        <v>-106997</v>
+      </c>
+      <c r="R25">
+        <v>1.22881</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>-124077.03333333333</v>
+      </c>
+      <c r="V25">
+        <v>1100000</v>
+      </c>
+      <c r="W25">
+        <v>1200.02</v>
+      </c>
+      <c r="X25">
+        <v>-292331</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1293620</v>
+      </c>
+      <c r="Z25">
+        <v>5049.78</v>
+      </c>
+      <c r="AA25">
+        <v>49920</v>
+      </c>
+      <c r="AB25">
+        <v>14080</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>23</v>
       </c>
@@ -2805,43 +5749,51 @@
         <v>148.5</v>
       </c>
       <c r="D26">
-        <v>1564.17</v>
+        <v>1597.29</v>
       </c>
       <c r="E26">
-        <v>-27839</v>
+        <v>-98452.4</v>
       </c>
       <c r="F26">
-        <v>-13547.3</v>
+        <v>-86014.5</v>
       </c>
       <c r="G26">
-        <v>-6160.47</v>
+        <v>-101668</v>
       </c>
       <c r="H26">
-        <v>1.22174</v>
-      </c>
-      <c r="K26">
+        <v>1.21086</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>-95378.3</v>
+      </c>
+      <c r="L26">
         <v>23</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>148.5</v>
       </c>
-      <c r="M26">
-        <v>1554.14</v>
-      </c>
       <c r="N26">
-        <v>-188267</v>
+        <v>1592.41</v>
       </c>
       <c r="O26">
-        <v>-116341</v>
+        <v>-214727</v>
       </c>
       <c r="P26">
-        <v>-117566</v>
+        <v>-160071</v>
       </c>
       <c r="Q26">
-        <v>1.23153</v>
+        <v>-155622</v>
+      </c>
+      <c r="R26">
+        <v>1.2242599999999999</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>-176806.66666666666</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>24</v>
       </c>
@@ -2849,43 +5801,51 @@
         <v>155.1</v>
       </c>
       <c r="D27">
-        <v>1558.98</v>
+        <v>1575.75</v>
       </c>
       <c r="E27">
-        <v>-44679.8</v>
+        <v>-135220</v>
       </c>
       <c r="F27">
-        <v>-6174.23</v>
+        <v>-108591</v>
       </c>
       <c r="G27">
-        <v>-298.93200000000002</v>
+        <v>-109159</v>
       </c>
       <c r="H27">
-        <v>1.2304600000000001</v>
-      </c>
-      <c r="K27">
+        <v>1.2176100000000001</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>-117656.66666666667</v>
+      </c>
+      <c r="L27">
         <v>24</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>155.1</v>
       </c>
-      <c r="M27">
-        <v>1546.09</v>
-      </c>
       <c r="N27">
-        <v>-233710</v>
+        <v>1599.19</v>
       </c>
       <c r="O27">
-        <v>-131857</v>
+        <v>-254453</v>
       </c>
       <c r="P27">
-        <v>-122538</v>
+        <v>-159893</v>
       </c>
       <c r="Q27">
-        <v>1.2423299999999999</v>
+        <v>-170171</v>
+      </c>
+      <c r="R27">
+        <v>1.2374099999999999</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>-194839</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>25</v>
       </c>
@@ -2893,43 +5853,51 @@
         <v>161.69999999999999</v>
       </c>
       <c r="D28">
-        <v>1538.38</v>
+        <v>1506.32</v>
       </c>
       <c r="E28">
-        <v>-58765</v>
+        <v>-178932</v>
       </c>
       <c r="F28">
-        <v>-18991.7</v>
+        <v>-151855</v>
       </c>
       <c r="G28">
-        <v>-32402.7</v>
+        <v>-149671</v>
       </c>
       <c r="H28">
-        <v>1.2338100000000001</v>
-      </c>
-      <c r="K28">
+        <v>1.2128099999999999</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>-160152.66666666666</v>
+      </c>
+      <c r="L28">
         <v>25</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>161.69999999999999</v>
       </c>
-      <c r="M28">
-        <v>1550.28</v>
-      </c>
       <c r="N28">
-        <v>-295170</v>
+        <v>1599.51</v>
       </c>
       <c r="O28">
-        <v>-189739</v>
+        <v>-299943</v>
       </c>
       <c r="P28">
-        <v>-196953</v>
+        <v>-185537</v>
       </c>
       <c r="Q28">
-        <v>1.2386600000000001</v>
+        <v>-182614</v>
+      </c>
+      <c r="R28">
+        <v>1.2429600000000001</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>-222698</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>26</v>
       </c>
@@ -2937,43 +5905,51 @@
         <v>168.3</v>
       </c>
       <c r="D29">
-        <v>1513.63</v>
+        <v>1452.33</v>
       </c>
       <c r="E29">
-        <v>-73267.600000000006</v>
+        <v>-207631</v>
       </c>
       <c r="F29">
-        <v>-64635</v>
+        <v>-172964</v>
       </c>
       <c r="G29">
-        <v>-42086.1</v>
+        <v>-168663</v>
       </c>
       <c r="H29">
-        <v>1.2278500000000001</v>
-      </c>
-      <c r="K29">
+        <v>1.2156199999999999</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>-183086</v>
+      </c>
+      <c r="L29">
         <v>26</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>168.3</v>
       </c>
-      <c r="M29">
-        <v>1553.11</v>
-      </c>
       <c r="N29">
-        <v>-352636</v>
+        <v>1598.52</v>
       </c>
       <c r="O29">
-        <v>-262840</v>
+        <v>-327367</v>
       </c>
       <c r="P29">
-        <v>-260206</v>
+        <v>-146386</v>
       </c>
       <c r="Q29">
-        <v>1.23342</v>
+        <v>-151354</v>
+      </c>
+      <c r="R29">
+        <v>1.2744200000000001</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>-208369</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>27</v>
       </c>
@@ -2981,43 +5957,51 @@
         <v>174.9</v>
       </c>
       <c r="D30">
-        <v>1533.32</v>
+        <v>1507.42</v>
       </c>
       <c r="E30">
-        <v>-93341.7</v>
+        <v>-255864</v>
       </c>
       <c r="F30">
-        <v>-66704.800000000003</v>
+        <v>-198878</v>
       </c>
       <c r="G30">
-        <v>-51783.7</v>
+        <v>-196998</v>
       </c>
       <c r="H30">
-        <v>1.22106</v>
-      </c>
-      <c r="K30">
+        <v>1.21567</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>-217246.66666666666</v>
+      </c>
+      <c r="L30">
         <v>27</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>174.9</v>
       </c>
-      <c r="M30">
-        <v>1555.01</v>
-      </c>
       <c r="N30">
-        <v>-401959</v>
+        <v>1595.71</v>
       </c>
       <c r="O30">
-        <v>-284430</v>
+        <v>-381027</v>
       </c>
       <c r="P30">
-        <v>-277178</v>
+        <v>-208370</v>
       </c>
       <c r="Q30">
-        <v>1.2381899999999999</v>
+        <v>-216914</v>
+      </c>
+      <c r="R30">
+        <v>1.2649900000000001</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>-268770.33333333331</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>28</v>
       </c>
@@ -3025,43 +6009,51 @@
         <v>181.5</v>
       </c>
       <c r="D31">
-        <v>1551.11</v>
+        <v>1566.97</v>
       </c>
       <c r="E31">
-        <v>-101477</v>
+        <v>-293738</v>
       </c>
       <c r="F31">
-        <v>-102222</v>
+        <v>-233096</v>
       </c>
       <c r="G31">
-        <v>-109076</v>
+        <v>-234945</v>
       </c>
       <c r="H31">
-        <v>1.2001900000000001</v>
-      </c>
-      <c r="K31">
+        <v>1.21434</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>-253926.33333333334</v>
+      </c>
+      <c r="L31">
         <v>28</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>181.5</v>
       </c>
-      <c r="M31">
-        <v>1559.28</v>
-      </c>
       <c r="N31">
-        <v>-462843</v>
+        <v>1593.31</v>
       </c>
       <c r="O31">
-        <v>-347168</v>
+        <v>-420620</v>
       </c>
       <c r="P31">
-        <v>-351856</v>
+        <v>-223627</v>
       </c>
       <c r="Q31">
-        <v>1.22438</v>
+        <v>-226357</v>
+      </c>
+      <c r="R31">
+        <v>1.2748200000000001</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>-290201.33333333331</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>29</v>
       </c>
@@ -3069,43 +6061,51 @@
         <v>188.1</v>
       </c>
       <c r="D32">
-        <v>1554.21</v>
+        <v>1594.57</v>
       </c>
       <c r="E32">
-        <v>-117883</v>
+        <v>-339604</v>
       </c>
       <c r="F32">
-        <v>-124510</v>
+        <v>-268625</v>
       </c>
       <c r="G32">
-        <v>-131023</v>
+        <v>-269251</v>
       </c>
       <c r="H32">
-        <v>1.1969700000000001</v>
-      </c>
-      <c r="K32">
+        <v>1.21113</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>-292493.33333333331</v>
+      </c>
+      <c r="L32">
         <v>29</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>188.1</v>
       </c>
-      <c r="M32">
-        <v>1564.4</v>
-      </c>
       <c r="N32">
-        <v>-516363</v>
+        <v>1592.11</v>
       </c>
       <c r="O32">
-        <v>-382732</v>
+        <v>-459260</v>
       </c>
       <c r="P32">
-        <v>-389691</v>
+        <v>-210317</v>
       </c>
       <c r="Q32">
-        <v>1.2254</v>
+        <v>-218078</v>
+      </c>
+      <c r="R32">
+        <v>1.2877799999999999</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>-295885</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>30</v>
       </c>
@@ -3113,43 +6113,51 @@
         <v>194.7</v>
       </c>
       <c r="D33">
-        <v>1552.82</v>
+        <v>1599.35</v>
       </c>
       <c r="E33">
-        <v>-135524</v>
+        <v>-380288</v>
       </c>
       <c r="F33">
-        <v>-120157</v>
+        <v>-276815</v>
       </c>
       <c r="G33">
-        <v>-126100</v>
+        <v>-267791</v>
       </c>
       <c r="H33">
-        <v>1.20967</v>
-      </c>
-      <c r="K33">
+        <v>1.2288300000000001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>-308298</v>
+      </c>
+      <c r="L33">
         <v>30</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>194.7</v>
       </c>
-      <c r="M33">
-        <v>1573.41</v>
-      </c>
       <c r="N33">
-        <v>-570172</v>
+        <v>1591.91</v>
       </c>
       <c r="O33">
-        <v>-392921</v>
+        <v>-508725</v>
       </c>
       <c r="P33">
-        <v>-390300</v>
+        <v>-234878</v>
       </c>
       <c r="Q33">
-        <v>1.24315</v>
+        <v>-243260</v>
+      </c>
+      <c r="R33">
+        <v>1.29348</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>-328954.33333333331</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>31</v>
       </c>
@@ -3157,43 +6165,51 @@
         <v>201.3</v>
       </c>
       <c r="D34">
-        <v>1534.26</v>
+        <v>1599.2</v>
       </c>
       <c r="E34">
-        <v>-153028</v>
+        <v>-413307</v>
       </c>
       <c r="F34">
-        <v>-110161</v>
+        <v>-269606</v>
       </c>
       <c r="G34">
-        <v>-127792</v>
+        <v>-279904</v>
       </c>
       <c r="H34">
-        <v>1.2194199999999999</v>
-      </c>
-      <c r="K34">
+        <v>1.2394799999999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>-320939</v>
+      </c>
+      <c r="L34">
         <v>31</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>201.3</v>
       </c>
-      <c r="M34">
-        <v>1575.4</v>
-      </c>
       <c r="N34">
-        <v>-622032</v>
+        <v>1597.25</v>
       </c>
       <c r="O34">
-        <v>-413801</v>
+        <v>-536779</v>
       </c>
       <c r="P34">
-        <v>-422164</v>
+        <v>-221410</v>
       </c>
       <c r="Q34">
-        <v>1.2486600000000001</v>
+        <v>-231021</v>
+      </c>
+      <c r="R34">
+        <v>1.3129500000000001</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>-329736.66666666669</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>32</v>
       </c>
@@ -3201,43 +6217,51 @@
         <v>207.9</v>
       </c>
       <c r="D35">
-        <v>1508.75</v>
+        <v>1596.47</v>
       </c>
       <c r="E35">
-        <v>-173064</v>
+        <v>-466549</v>
       </c>
       <c r="F35">
-        <v>-133472</v>
+        <v>-346708</v>
       </c>
       <c r="G35">
-        <v>-137877</v>
+        <v>-345873</v>
       </c>
       <c r="H35">
-        <v>1.2223599999999999</v>
-      </c>
-      <c r="K35">
+        <v>1.2197199999999999</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>-386376.66666666669</v>
+      </c>
+      <c r="L35">
         <v>32</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>207.9</v>
       </c>
-      <c r="M35">
-        <v>1578.68</v>
-      </c>
       <c r="N35">
-        <v>-676545</v>
+        <v>1605.32</v>
       </c>
       <c r="O35">
-        <v>-458966</v>
+        <v>-580600</v>
       </c>
       <c r="P35">
-        <v>-459702</v>
+        <v>-222634</v>
       </c>
       <c r="Q35">
-        <v>1.2520100000000001</v>
+        <v>-225643</v>
+      </c>
+      <c r="R35">
+        <v>1.3256399999999999</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>-342959</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>33</v>
       </c>
@@ -3245,43 +6269,51 @@
         <v>214.5</v>
       </c>
       <c r="D36">
-        <v>1526.03</v>
+        <v>1586.02</v>
       </c>
       <c r="E36">
-        <v>-186291</v>
+        <v>-502980</v>
       </c>
       <c r="F36">
-        <v>-136895</v>
+        <v>-362074</v>
       </c>
       <c r="G36">
-        <v>-133463</v>
+        <v>-363737</v>
       </c>
       <c r="H36">
-        <v>1.22201</v>
-      </c>
-      <c r="K36">
+        <v>1.2262900000000001</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>-409597</v>
+      </c>
+      <c r="L36">
         <v>33</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>214.5</v>
       </c>
-      <c r="M36">
-        <v>1575.81</v>
-      </c>
       <c r="N36">
-        <v>-732076</v>
+        <v>1603.07</v>
       </c>
       <c r="O36">
-        <v>-507336</v>
+        <v>-633504</v>
       </c>
       <c r="P36">
-        <v>-500332</v>
+        <v>-283054</v>
       </c>
       <c r="Q36">
-        <v>1.25101</v>
+        <v>-281169</v>
+      </c>
+      <c r="R36">
+        <v>1.3130599999999999</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>-399242.33333333331</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>34</v>
       </c>
@@ -3289,43 +6321,51 @@
         <v>221.1</v>
       </c>
       <c r="D37">
-        <v>1577.15</v>
+        <v>1564.13</v>
       </c>
       <c r="E37">
-        <v>-210851</v>
+        <v>-543010</v>
       </c>
       <c r="F37">
-        <v>-145584</v>
+        <v>-392808</v>
       </c>
       <c r="G37">
-        <v>-159393</v>
+        <v>-403961</v>
       </c>
       <c r="H37">
-        <v>1.2231000000000001</v>
-      </c>
-      <c r="K37">
+        <v>1.22698</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>-446593</v>
+      </c>
+      <c r="L37">
         <v>34</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>221.1</v>
       </c>
-      <c r="M37">
-        <v>1583.07</v>
-      </c>
       <c r="N37">
-        <v>-782168</v>
+        <v>1608.77</v>
       </c>
       <c r="O37">
-        <v>-508366</v>
+        <v>-661440</v>
       </c>
       <c r="P37">
-        <v>-507273</v>
+        <v>-242417</v>
       </c>
       <c r="Q37">
-        <v>1.26308</v>
+        <v>-241654</v>
+      </c>
+      <c r="R37">
+        <v>1.3416999999999999</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>-381837</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>35</v>
       </c>
@@ -3333,43 +6373,51 @@
         <v>227.7</v>
       </c>
       <c r="D38">
-        <v>1594</v>
+        <v>1538.91</v>
       </c>
       <c r="E38">
-        <v>-219901</v>
+        <v>-583839</v>
       </c>
       <c r="F38">
-        <v>-145604</v>
+        <v>-444868</v>
       </c>
       <c r="G38">
-        <v>-150662</v>
+        <v>-452146</v>
       </c>
       <c r="H38">
-        <v>1.22797</v>
-      </c>
-      <c r="K38">
+        <v>1.2224200000000001</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>-493617.66666666669</v>
+      </c>
+      <c r="L38">
         <v>35</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>227.7</v>
       </c>
-      <c r="M38">
-        <v>1587.05</v>
-      </c>
       <c r="N38">
-        <v>-828318</v>
+        <v>1607.89</v>
       </c>
       <c r="O38">
-        <v>-520714</v>
+        <v>-699358</v>
       </c>
       <c r="P38">
-        <v>-541868</v>
+        <v>-263939</v>
       </c>
       <c r="Q38">
-        <v>1.2685900000000001</v>
+        <v>-249230</v>
+      </c>
+      <c r="R38">
+        <v>1.3450200000000001</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>-404175.66666666669</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>36</v>
       </c>
@@ -3377,43 +6425,51 @@
         <v>234.3</v>
       </c>
       <c r="D39">
-        <v>1590.14</v>
+        <v>1519.09</v>
       </c>
       <c r="E39">
-        <v>-229110</v>
+        <v>-621687</v>
       </c>
       <c r="F39">
-        <v>-167331</v>
+        <v>-482855</v>
       </c>
       <c r="G39">
-        <v>-175825</v>
+        <v>-471168</v>
       </c>
       <c r="H39">
-        <v>1.22749</v>
-      </c>
-      <c r="K39">
+        <v>1.2241500000000001</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>-525236.66666666663</v>
+      </c>
+      <c r="L39">
         <v>36</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>234.3</v>
       </c>
-      <c r="M39">
-        <v>1587.81</v>
-      </c>
       <c r="N39">
-        <v>-895761</v>
+        <v>1604.37</v>
       </c>
       <c r="O39">
-        <v>-622845</v>
+        <v>-744717</v>
       </c>
       <c r="P39">
-        <v>-617580</v>
+        <v>-267851</v>
       </c>
       <c r="Q39">
-        <v>1.2504</v>
+        <v>-260587</v>
+      </c>
+      <c r="R39">
+        <v>1.3548</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>-424385</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>37</v>
       </c>
@@ -3421,43 +6477,51 @@
         <v>240.9</v>
       </c>
       <c r="D40">
-        <v>1575.55</v>
+        <v>1520.26</v>
       </c>
       <c r="E40">
-        <v>-250011</v>
+        <v>-659246</v>
       </c>
       <c r="F40">
-        <v>-192850</v>
+        <v>-527826</v>
       </c>
       <c r="G40">
-        <v>-180599</v>
+        <v>-522612</v>
       </c>
       <c r="H40">
-        <v>1.2258100000000001</v>
-      </c>
-      <c r="K40">
+        <v>1.20912</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>-569894.66666666663</v>
+      </c>
+      <c r="L40">
         <v>37</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>240.9</v>
       </c>
-      <c r="M40">
-        <v>1594.95</v>
-      </c>
       <c r="N40">
-        <v>-940293</v>
+        <v>1601.74</v>
       </c>
       <c r="O40">
-        <v>-629028</v>
+        <v>-784280</v>
       </c>
       <c r="P40">
-        <v>-629675</v>
+        <v>-268521</v>
       </c>
       <c r="Q40">
-        <v>1.26163</v>
+        <v>-247775</v>
+      </c>
+      <c r="R40">
+        <v>1.3634900000000001</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>-433525.33333333331</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>38</v>
       </c>
@@ -3465,43 +6529,51 @@
         <v>247.5</v>
       </c>
       <c r="D41">
-        <v>1541.61</v>
-      </c>
-      <c r="E41">
-        <v>-282809</v>
+        <v>1539.4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-702808</v>
       </c>
       <c r="F41">
-        <v>-203915</v>
+        <v>-556142</v>
       </c>
       <c r="G41">
-        <v>-205241</v>
+        <v>-548329</v>
       </c>
       <c r="H41">
-        <v>1.22279</v>
-      </c>
-      <c r="K41">
+        <v>1.2147300000000001</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>-602426.33333333337</v>
+      </c>
+      <c r="L41">
         <v>38</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>247.5</v>
       </c>
-      <c r="M41">
-        <v>1597.84</v>
-      </c>
       <c r="N41">
-        <v>-983481</v>
+        <v>1600.43</v>
       </c>
       <c r="O41">
-        <v>-642021</v>
+        <v>-822868</v>
       </c>
       <c r="P41">
-        <v>-650417</v>
+        <v>-262087</v>
       </c>
       <c r="Q41">
-        <v>1.27132</v>
+        <v>-258943</v>
+      </c>
+      <c r="R41">
+        <v>1.3751</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>-447966</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>39</v>
       </c>
@@ -3509,43 +6581,51 @@
         <v>254.1</v>
       </c>
       <c r="D42">
-        <v>1487.78</v>
-      </c>
-      <c r="E42">
-        <v>-289269</v>
+        <v>1565.55</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-738658</v>
       </c>
       <c r="F42">
-        <v>-203445</v>
+        <v>-573060</v>
       </c>
       <c r="G42">
-        <v>-215977</v>
+        <v>-566007</v>
       </c>
       <c r="H42">
-        <v>1.22492</v>
-      </c>
-      <c r="K42">
+        <v>1.2172400000000001</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>-625908.33333333337</v>
+      </c>
+      <c r="L42">
         <v>39</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>254.1</v>
       </c>
-      <c r="M42">
-        <v>1598.46</v>
-      </c>
-      <c r="N42" s="1">
-        <v>-1036040</v>
-      </c>
-      <c r="O42">
-        <v>-685029</v>
+      <c r="N42">
+        <v>1600.2</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-860020</v>
       </c>
       <c r="P42">
-        <v>-692200</v>
+        <v>-239668</v>
       </c>
       <c r="Q42">
-        <v>1.2651399999999999</v>
+        <v>-243186</v>
+      </c>
+      <c r="R42">
+        <v>1.39198</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>-447624.66666666669</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>40</v>
       </c>
@@ -3553,43 +6633,51 @@
         <v>260.7</v>
       </c>
       <c r="D43">
-        <v>1480.1</v>
-      </c>
-      <c r="E43">
-        <v>-305499</v>
+        <v>1582.16</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-787643</v>
       </c>
       <c r="F43">
-        <v>-246932</v>
+        <v>-620100</v>
       </c>
       <c r="G43">
-        <v>-250826</v>
+        <v>-618933</v>
       </c>
       <c r="H43">
-        <v>1.21689</v>
-      </c>
-      <c r="K43">
+        <v>1.2084999999999999</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>-675558.66666666663</v>
+      </c>
+      <c r="L43">
         <v>40</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>260.7</v>
       </c>
-      <c r="M43">
-        <v>1603.08</v>
-      </c>
-      <c r="N43" s="1">
-        <v>-1092690</v>
-      </c>
-      <c r="O43">
-        <v>-709464</v>
+      <c r="N43">
+        <v>1601.99</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-910865</v>
       </c>
       <c r="P43">
-        <v>-712369</v>
+        <v>-328646</v>
       </c>
       <c r="Q43">
-        <v>1.26993</v>
+        <v>-328606</v>
+      </c>
+      <c r="R43">
+        <v>1.3722099999999999</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>-522705.66666666669</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>41</v>
       </c>
@@ -3597,43 +6685,51 @@
         <v>267.3</v>
       </c>
       <c r="D44">
-        <v>1543.23</v>
-      </c>
-      <c r="E44">
-        <v>-295541</v>
+        <v>1595.89</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-708056</v>
       </c>
       <c r="F44">
-        <v>-257116</v>
+        <v>-511993</v>
       </c>
       <c r="G44">
-        <v>-250500</v>
+        <v>-540953</v>
       </c>
       <c r="H44">
-        <v>1.21556</v>
-      </c>
-      <c r="K44">
+        <v>1.2281299999999999</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>-587000.66666666663</v>
+      </c>
+      <c r="L44">
         <v>41</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>267.3</v>
       </c>
-      <c r="M44">
-        <v>1598.25</v>
-      </c>
       <c r="N44">
-        <v>-995002</v>
+        <v>1604.88</v>
       </c>
       <c r="O44">
-        <v>-708650</v>
+        <v>-806726</v>
       </c>
       <c r="P44">
-        <v>-729223</v>
+        <v>-408435</v>
       </c>
       <c r="Q44">
-        <v>1.25851</v>
+        <v>-435691</v>
+      </c>
+      <c r="R44">
+        <v>1.32447</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>-550284</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>42</v>
       </c>
@@ -3641,40 +6737,48 @@
         <v>273.89999999999998</v>
       </c>
       <c r="D45">
-        <v>1081</v>
+        <v>975</v>
       </c>
       <c r="E45">
-        <v>-71914.7</v>
+        <v>-94872.9</v>
       </c>
       <c r="F45">
-        <v>-50417.599999999999</v>
+        <v>-8803.4599999999991</v>
       </c>
       <c r="G45">
-        <v>-9041.66</v>
+        <v>13140.1</v>
       </c>
       <c r="H45">
-        <v>1.2321899999999999</v>
-      </c>
-      <c r="K45">
+        <v>1.2225600000000001</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>-30178.753333333327</v>
+      </c>
+      <c r="L45">
         <v>42</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>273.89999999999998</v>
       </c>
-      <c r="M45">
-        <v>1081</v>
-      </c>
       <c r="N45">
-        <v>-111875</v>
+        <v>975</v>
       </c>
       <c r="O45">
-        <v>-12280.4</v>
+        <v>-194713</v>
       </c>
       <c r="P45">
-        <v>15625.5</v>
+        <v>-66490.8</v>
       </c>
       <c r="Q45">
-        <v>1.23969</v>
+        <v>-5015.38</v>
+      </c>
+      <c r="R45">
+        <v>1.2098500000000001</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>-88739.726666666669</v>
       </c>
     </row>
   </sheetData>
